--- a/biology/Mycologie/Cladonia/Cladonia.xlsx
+++ b/biology/Mycologie/Cladonia/Cladonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladonia (du grec klados « rameau », allusion aux ramifications du thalle secondaire de certaines espèces) est un genre de champignons lichénisés comportant de très nombreuses espèces. Il s'agit toujours de formes dressées et essentiellement terricoles, c'est-à-dire se développant sur un sol.
 Certains représentants du genre habitant les régions arctiques sont bien connus en raison de leur importance dans l'alimentation de quelques animaux, dont le renne, le caribou et les bœufs musqués ; ils sont généralement connus sous le nom de lichens des rennes. D'autres représentants sont souvent utilisés pour décorer des paysages miniatures ou des tombes.
@@ -512,10 +524,12 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre, d'origine savante, est emprunté au grec ancien klados (κλάδος) qui signifie « rameau », par référence à la structure du thalle secondaire de ces lichens dont certains représentants sont très ramifiés[1]. Au Québec, le terme est parfois francisé en « cladonie ».
-Comportant plus de 400 espèces[2], le genre Cladonia est très diversifié et, de ce fait, a de longue date été subdivisé en groupes considérés comme plus homogènes (sous-genres, sections...). L'avènement des techniques de classification phylogénétique et l'utilisation des outils moléculaires ont récemment renouvelé l'intérêt pour ces questions et suscité des débats qui sont loin d'être clos. Un résultat constant des études récentes va toutefois dans le sens de la réintégration dans le genre Cladonia des « lichens des rennes » longtemps séparés sous le nom de genre Cladina[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre, d'origine savante, est emprunté au grec ancien klados (κλάδος) qui signifie « rameau », par référence à la structure du thalle secondaire de ces lichens dont certains représentants sont très ramifiés. Au Québec, le terme est parfois francisé en « cladonie ».
+Comportant plus de 400 espèces, le genre Cladonia est très diversifié et, de ce fait, a de longue date été subdivisé en groupes considérés comme plus homogènes (sous-genres, sections...). L'avènement des techniques de classification phylogénétique et l'utilisation des outils moléculaires ont récemment renouvelé l'intérêt pour ces questions et suscité des débats qui sont loin d'être clos. Un résultat constant des études récentes va toutefois dans le sens de la réintégration dans le genre Cladonia des « lichens des rennes » longtemps séparés sous le nom de genre Cladina,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cladonia sont associés à des algues vertes du genre Asterochloris[4]. Ils comportent un thalle primaire encroûtant ou formé d'éléments foliacés (squamules), appliqué sur le substrat. Le thalle primaire peut disparaître ou persister et, dans ce cas, coexister avec le thalle secondaire et éventuellement le dominer.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cladonia sont associés à des algues vertes du genre Asterochloris. Ils comportent un thalle primaire encroûtant ou formé d'éléments foliacés (squamules), appliqué sur le substrat. Le thalle primaire peut disparaître ou persister et, dans ce cas, coexister avec le thalle secondaire et éventuellement le dominer.
 Le thalle secondaire, partie généralement la plus visible du lichen, est formé de tiges se dressant à partir du thalle primaire auquel elles sont fixées soit de façon permanente, soit pendant une partie de leur développement : ces tiges sont nommées « podetium », francisé en « podétion » par certains auteurs.
 Les podétions sont des structures creuses qui portent à leurs extrémités les apothécies productrices de spores. Ils sont tantôt simples, tantôt ramifiés. Chez les espèces autrefois classées dans le genre Cladina, la croissance se poursuit pendant des durées considérables et aboutit à des ramifications enchevêtrées très complexes.
 Situées en position terminale, les apothécies mettent fin à la croissance des podétions. Elles sont parfois vivement colorées, variant du jaune pâle au rouge vif, les couleurs les plus fréquentes étant les bruns.
@@ -578,7 +594,9 @@
           <t>Croissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces lichens peuvent atteindre des masses importantes (c'est le cas des espèces consommées par les rennes et les caribous)
 </t>
@@ -609,15 +627,17 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cladonia acervata S.Hammer (2001)
 Cladonia ahtii  S.Stenroos (1989)
-Cladonia alaskana  A.Evans (1947)[5]
+Cladonia alaskana  A.Evans (1947)
 Cladonia albofuscescens  Vain. (1887)
 Cladonia albonigra  Brodo &amp; Ahti (1996)
 Cladonia aleuropoda  Vain. (1899)
-Cladonia alpina Yoshim. (1968)[6]
+Cladonia alpina Yoshim. (1968)
 Cladonia amaurocraea  (Flörke) Schaer. (1887)
 Cladonia anaemica  (Nyl.) Ahti (2000)
 Cladonia andesita  Vain. (1899)
@@ -629,7 +649,7 @@
 Cladonia arcuata  Ahti (1961)
 Cladonia argentea  (Ahti) Ahti &amp; DePriest (2001)
 Cladonia asahinae  J.W.Thomson (1977)
-Cladonia atlantica A.Evans (1944) [7]
+Cladonia atlantica A.Evans (1944) 
 Cladonia atrans  (Ahti) Ahti &amp; DePriest (2001)
 Cladonia attacta  S.Hammer (2001)
 Cladonia awasthiana  Ahti &amp; Upreti (2004)
@@ -674,7 +694,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cladonia caespiticia (Pers.) P.Gaertn., B.Mey &amp; Scherb. (1802)
 Cladonia callosa  Delise ex Harm. (1907)
@@ -765,17 +787,85 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cladonies sont très souvent des espèces terricoles, pouvant se contenter de sols squelettiques. Mais ils peuvent aussi se développer sur des bois pourrissants (souches) ou sur des mousses. D'une manière générale, ces lichens sont souvent capables de vivre, voire de trouver leur optimum de développement dans des conditions où l'humidité est insuffisante pour permettre la survie des plantes vasculaires[8]. Cette caractéristique explique que les Cladonia, et en particulier les Cladina, puissent localement dominer les strates muscinale et herbacée de milieux secs ou connaissant des périodes de sécheresse intense. C'est notamment le cas dans les toundras et forêts boréales, de nombreux milieux dunaires, certaines landes et pelouses d'altitude, etc.
-Milieux arctiques
-Les lichens, et les cladonies en particulier, marquent fortement la physionomie des milieux arctiques.
-La végétation arctique est organisée selon une zonation latitudinale analogue en Amérique du Nord et en Eurasie : entre le désert polaire et la forêt de feuillus tempérée, se succèdent la toundra et la forêt boréale. Au nord-est du Canada par exemple (Labrador et Québec), cette zone boréale se subdivise elle-même en plusieurs unités secondaires : du nord au sud, ce sont la toundra herbacée, la toundra arbustive, la toundra forestière, la pessière à lichens et la pessière à mousses[9]. Les lichens, essentiellement du genre Cladonia (lichens des rennes), dominent la strate herbacée des trois unités centrales, de la toundra arbustive à la pessière à lichens. Localement, parfois sur des étendues immenses, le sol de la toundra est couvert d'un épais tapis de lichens parsemé d'herbacées et de rares arbrisseaux. Ces lichens pénètrent jusque dans la forêt fermée (pessière à mousses), mais avec un recouvrement moindre que dans la forêt ouverte (pessière à lichens) : dans celle-ci, la couverture au sol dépasse généralement 40 %[10], au point que cette unité de végétation est également connue des spécialistes sous le nom de « pessière à cladonies »[11].
-Outre leur forte participation à la physionomie des paysages et à la structuration de la couverture végétale, les Cladonia tiennent, en tant que ressource alimentaire, une place très importante dans le fonctionnement des écosystèmes arctiques. Sauf exception (comme à Svalbard), ces lichens jouent un rôle essentiel dans l'alimentation des rennes et des caribous. En hiver, la contribution des cladonies devient même vitale pour ces animaux, en particulier pour les troupeaux sauvages ou semi-domestiqués. La préférence de l'espèce pour les lichens des rennes (genre Cladonia) est établie par de nombreux travaux scientifiques[12] et confirmée par l'expérience des éleveurs[13].
-Milieux dunaires
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cladonies sont très souvent des espèces terricoles, pouvant se contenter de sols squelettiques. Mais ils peuvent aussi se développer sur des bois pourrissants (souches) ou sur des mousses. D'une manière générale, ces lichens sont souvent capables de vivre, voire de trouver leur optimum de développement dans des conditions où l'humidité est insuffisante pour permettre la survie des plantes vasculaires. Cette caractéristique explique que les Cladonia, et en particulier les Cladina, puissent localement dominer les strates muscinale et herbacée de milieux secs ou connaissant des périodes de sécheresse intense. C'est notamment le cas dans les toundras et forêts boréales, de nombreux milieux dunaires, certaines landes et pelouses d'altitude, etc.
 </t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cladonia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Milieux arctiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lichens, et les cladonies en particulier, marquent fortement la physionomie des milieux arctiques.
+La végétation arctique est organisée selon une zonation latitudinale analogue en Amérique du Nord et en Eurasie : entre le désert polaire et la forêt de feuillus tempérée, se succèdent la toundra et la forêt boréale. Au nord-est du Canada par exemple (Labrador et Québec), cette zone boréale se subdivise elle-même en plusieurs unités secondaires : du nord au sud, ce sont la toundra herbacée, la toundra arbustive, la toundra forestière, la pessière à lichens et la pessière à mousses. Les lichens, essentiellement du genre Cladonia (lichens des rennes), dominent la strate herbacée des trois unités centrales, de la toundra arbustive à la pessière à lichens. Localement, parfois sur des étendues immenses, le sol de la toundra est couvert d'un épais tapis de lichens parsemé d'herbacées et de rares arbrisseaux. Ces lichens pénètrent jusque dans la forêt fermée (pessière à mousses), mais avec un recouvrement moindre que dans la forêt ouverte (pessière à lichens) : dans celle-ci, la couverture au sol dépasse généralement 40 %, au point que cette unité de végétation est également connue des spécialistes sous le nom de « pessière à cladonies ».
+Outre leur forte participation à la physionomie des paysages et à la structuration de la couverture végétale, les Cladonia tiennent, en tant que ressource alimentaire, une place très importante dans le fonctionnement des écosystèmes arctiques. Sauf exception (comme à Svalbard), ces lichens jouent un rôle essentiel dans l'alimentation des rennes et des caribous. En hiver, la contribution des cladonies devient même vitale pour ces animaux, en particulier pour les troupeaux sauvages ou semi-domestiqués. La préférence de l'espèce pour les lichens des rennes (genre Cladonia) est établie par de nombreux travaux scientifiques et confirmée par l'expérience des éleveurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cladonia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Milieux dunaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
